--- a/configs/table-configs/renewal_items_standard-complete.xlsx
+++ b/configs/table-configs/renewal_items_standard-complete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/Library/CloudStorage/Dropbox/Data/Table Formatter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/Dev/Nuxt/EE_manager/configs/table-configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC8E47D-6BD5-5E4B-A8F5-ED4FD1A3A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44100" yWindow="12160" windowWidth="30520" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="83000" yWindow="8020" windowWidth="30520" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column Definitions" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
